--- a/WebAPP/wwwroot/Form/formNhapCauHoiTracNghiem.xlsx
+++ b/WebAPP/wwwroot/Form/formNhapCauHoiTracNghiem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smtng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6375D651-A0E9-48B8-A66C-5D4D499358B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E1FA40-8E9B-4182-A80D-40C563C0A0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62B9673F-6EC5-47DD-9605-FCC591F5EB62}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nội dung câu hỏi</t>
   </si>
@@ -43,12 +43,18 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
+  </si>
+  <si>
+    <t>Điểm số</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -115,6 +121,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,19 +447,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34701C78-0367-40EF-986A-4944EBB190BE}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="27.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -460,8 +476,11 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
